--- a/Casos de prueba.xlsx
+++ b/Casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Curso Python\Proyecto Final v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6EAD8B-1F04-4EF9-8A4E-B55150F13255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71432B35-792A-46F6-8FC2-F905551F189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -127,12 +127,6 @@
     <t>Caso #9</t>
   </si>
   <si>
-    <t>Caso #10</t>
-  </si>
-  <si>
-    <t>Edición de objeto de Mantenimiento</t>
-  </si>
-  <si>
     <t>Búsqueda de registro de Mantenimiento</t>
   </si>
   <si>
@@ -166,10 +160,25 @@
     <t>Se redirige a la lista de mantenimientos. Se observa en la lista el mantenimiento creado.</t>
   </si>
   <si>
-    <t>Se aprieta el ícono de la lupa.</t>
-  </si>
-  <si>
     <t>Descripcion/Acción</t>
+  </si>
+  <si>
+    <t>Se aprieta el ícono de la lupa de la lista de mantenimientos.</t>
+  </si>
+  <si>
+    <t>Se redirige a una lista de mantenimientos donde se muestra únicamente el objeto indicado.</t>
+  </si>
+  <si>
+    <t>Se aprieta el botón de "Logout".</t>
+  </si>
+  <si>
+    <t>Se modifica el menú desplegable. Ya no es posible acceder a los objetos de la BD, incluso a través de la URL.</t>
+  </si>
+  <si>
+    <t>Se modifican los datos del perfil.</t>
+  </si>
+  <si>
+    <t>Se cierra la sesión y se ingresa con la contraseña modificada. Si se intenta volver a modificar los datos del perfil ya se encuentran cargado el nombre y el apellidos ingresados.</t>
   </si>
 </sst>
 </file>
@@ -297,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,9 +320,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA1001"/>
+  <dimension ref="B2:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -573,56 +579,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -630,49 +636,49 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="2:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="4">
         <v>44789</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>45</v>
+      <c r="H8" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -695,26 +701,26 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="4">
         <v>44789</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>44</v>
+      <c r="H9" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -737,26 +743,26 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="4">
         <v>44789</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>45</v>
+      <c r="H10" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -779,27 +785,33 @@
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="4">
         <v>44789</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="3"/>
@@ -811,11 +823,11 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -826,41 +838,57 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G14" s="4">
         <v>44789</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="15" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:27" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" s="4">
         <v>44789</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>39</v>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -870,32 +898,18 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4">
-        <v>44789</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1878,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
